--- a/biology/Zoologie/Arion_ater/Arion_ater.xlsx
+++ b/biology/Zoologie/Arion_ater/Arion_ater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Arion ater est une espèce de mollusques gastéropodes de la famille des Arionidae. Elle est appelée plus communément loche noire ou grande limace. Au Québec, ce mollusque est appelé limace géante ou limace noire.
 Répartition : presque partout, mais rare : surtout dans les régions montagneuses.
